--- a/Content/Arena/List of Arenas.xlsx
+++ b/Content/Arena/List of Arenas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="20700" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>擂台编号</t>
   </si>
@@ -64,7 +64,7 @@
     <t>成本</t>
   </si>
   <si>
-    <t>智能调研报告生成</t>
+    <t>一周搭建企业级智能调研报告生成系统Demo</t>
   </si>
   <si>
     <r>
@@ -222,7 +222,7 @@
     </r>
   </si>
   <si>
-    <t>一周</t>
+    <t>较快</t>
   </si>
   <si>
     <t>较高</t>
@@ -231,7 +231,7 @@
     <t>较优</t>
   </si>
   <si>
-    <t>业务看板搭建</t>
+    <t>两天搭建业务看板及网站Demo</t>
   </si>
   <si>
     <r>
@@ -369,16 +369,13 @@
     </r>
   </si>
   <si>
-    <t>1~2天</t>
-  </si>
-  <si>
     <t>很高</t>
   </si>
   <si>
     <t>较低</t>
   </si>
   <si>
-    <t>文档审核与风控</t>
+    <t>一周搭建文档审核与风控Demo</t>
   </si>
   <si>
     <r>
@@ -551,7 +548,10 @@
     </r>
   </si>
   <si>
-    <t>企业演示视频</t>
+    <t>很快</t>
+  </si>
+  <si>
+    <t>两天半搭建企业级简要演示视频</t>
   </si>
   <si>
     <r>
@@ -653,7 +653,7 @@
     <t>中等</t>
   </si>
   <si>
-    <t>儿童教育趣味应用</t>
+    <t>一周搭建儿童教育趣味应用Demo</t>
   </si>
   <si>
     <r>
@@ -728,7 +728,7 @@
     <t>服务</t>
   </si>
   <si>
-    <t>长时间序列预测系统</t>
+    <t>一周搭建长时间序列预测系统Demo（能源领域）</t>
   </si>
   <si>
     <r>
@@ -803,7 +803,7 @@
     </r>
   </si>
   <si>
-    <t>智能文档翻译系统</t>
+    <t>一周搭建智能文档翻译系统Demo</t>
   </si>
   <si>
     <r>
@@ -864,7 +864,7 @@
     </r>
   </si>
   <si>
-    <t>智能合同法审系统</t>
+    <t>一天构建一个多合同交叉校验的智能合同法审系统Demo</t>
   </si>
   <si>
     <r>
@@ -916,7 +916,7 @@
     <t>风控</t>
   </si>
   <si>
-    <t>通用目标检测系统</t>
+    <t>一周搭建高精度通用目标检测系统Demo（能源&amp;农林领域）</t>
   </si>
   <si>
     <r>
@@ -1107,24 +1107,89 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+    <t>SQL语言智能生成(NL2SQL)的通用实践</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>私部署版：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XiYan-SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>QwenCoder-32B-2504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速搭建一个大模型，通过对话生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
       <t>SQL</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语言智能生成</t>
-    </r>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本</t>
+    </r>
+  </si>
+  <si>
+    <t>信息技术</t>
+  </si>
+  <si>
+    <t>一周搭建对话式功能推荐助手Demo（AI领域）</t>
   </si>
   <si>
     <r>
@@ -1143,70 +1208,89 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>XiYan-SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>QwenCoder-32B-2504</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速搭建一个大模型，通过对话生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本</t>
-    </r>
-  </si>
-  <si>
-    <t>信息技术</t>
-  </si>
-  <si>
-    <t>功能推荐助手</t>
+      <t>Coze + GLM 4.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一周基于低代码构建一个具备主动追问与推荐能力的对话式助手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Demo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科研教育</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运营</t>
+    </r>
+  </si>
+  <si>
+    <t>一周构建智能信贷报告生成系统Demo</t>
   </si>
   <si>
     <r>
@@ -1225,18 +1309,18 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Coze + GLM 4.7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一周基于低代码构建一个具备主动追问与推荐能力的对话式助手</t>
+      <t>LangChain + GLM 4.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一周低代码构建具备多源数据整合、合规校验、信贷报告一键生成能力的银行智能信贷系统</t>
     </r>
     <r>
       <rPr>
@@ -1249,14 +1333,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息技术</t>
+    <t>一周构建单条全国产业链图谱</t>
+  </si>
+  <si>
+    <t>一周低代码完成单条全国产业链图谱全流程构建</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金融贸易</t>
     </r>
     <r>
       <rPr>
@@ -1274,115 +1364,11 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>科研教育</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运营</t>
-    </r>
-  </si>
-  <si>
-    <t>智能信贷报告生成系统</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>私部署版：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LangChain + GLM 4.7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一周低代码构建具备多源数据整合、合规校验、信贷报告一键生成能力的银行智能信贷系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Demo</t>
-    </r>
-  </si>
-  <si>
-    <t>单条产业链图谱</t>
-  </si>
-  <si>
-    <t>一周低代码完成单条全国产业链图谱全流程构建</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金融贸易</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>能源制造</t>
     </r>
+  </si>
+  <si>
+    <t>较慢</t>
   </si>
   <si>
     <r>
@@ -1415,7 +1401,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,12 +1597,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2458,8 +2438,8 @@
   <sheetPr/>
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2503,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" ht="14.25" spans="2:12">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2574,13 +2554,13 @@
         <v>24</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>19</v>
@@ -2591,25 +2571,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>18</v>
@@ -2657,7 +2637,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>37</v>
@@ -2705,7 +2685,7 @@
         <v>42</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>37</v>
@@ -2801,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>37</v>
@@ -2826,7 +2806,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" ht="14.25" spans="2:12">
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -2849,7 +2829,7 @@
         <v>56</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>37</v>
@@ -2897,7 +2877,7 @@
         <v>61</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>37</v>
@@ -2932,7 +2912,7 @@
         <v>42</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>18</v>
@@ -2944,7 +2924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" ht="14.25" spans="2:12">
       <c r="B21" s="3">
         <v>11</v>
       </c>
@@ -2967,10 +2947,10 @@
         <v>70</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>18</v>
@@ -3015,7 +2995,7 @@
         <v>70</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>37</v>
@@ -3050,7 +3030,7 @@
         <v>70</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>37</v>
@@ -3067,7 +3047,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3171,19 +3151,19 @@
     <mergeCell ref="L21:L22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="智能调研报告生成" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/DbbUwFE8FiYjupki6uzcRqT0nEe?from=from_copylink"/>
-    <hyperlink ref="C6" r:id="rId2" display="业务看板搭建" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/CtjuwGhsIiE977kD7TLc4u0KnRe?from=from_copylink"/>
-    <hyperlink ref="C7" r:id="rId3" display="文档审核与风控" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/PQ6MwPExLi3v2Vkn3DAckYxGn8b?from=from_copylink"/>
-    <hyperlink ref="C9" r:id="rId4" display="企业演示视频" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/Dkl8wQ6fBiE49Gk4XE2cTRc2nhD?from=from_copylink"/>
-    <hyperlink ref="C11" r:id="rId5" display="儿童教育趣味应用" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/Csk3wFuMwiZk00kt8WJco88Wn5g?from=from_copylink"/>
-    <hyperlink ref="C13" r:id="rId6" display="长时间序列预测系统" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/G6S3wY1eriHk3UkfCDlc6PEznpd?from=from_copylink"/>
-    <hyperlink ref="C15" r:id="rId7" display="智能文档翻译系统" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/QHljw6HhbiceMPkBC49cmvzNnXf?from=from_copylink"/>
-    <hyperlink ref="C17" r:id="rId8" display="智能合同法审系统" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/NfpfwmK16iXEDtkznIscn549nEb?from=from_copylink"/>
-    <hyperlink ref="C19" r:id="rId9" display="通用目标检测系统" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/OfMfwwUxMic5Qkkul8GcaA5En4d?from=from_copylink"/>
-    <hyperlink ref="C20" r:id="rId10" display="SQL语言智能生成" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/GGMKw7bP7iXmNpk88OxcsqCznmg?from=from_copylink"/>
-    <hyperlink ref="C21" r:id="rId11" display="功能推荐助手" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/HyCjwOFsoirEEnkJnddcEwo0noh?from=from_copylink"/>
-    <hyperlink ref="C23" r:id="rId12" display="智能信贷报告生成系统" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/WzlLwUPYFiaUiYkTl4LcIaBCnyf?from=from_copylink"/>
-    <hyperlink ref="C24" r:id="rId13" display="单条产业链图谱" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/HfZEwCQKAis15tk01CzcjabYnOf?from=from_copylink"/>
+    <hyperlink ref="C4" r:id="rId1" display="一周搭建企业级智能调研报告生成系统Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/DbbUwFE8FiYjupki6uzcRqT0nEe?from=from_copylink"/>
+    <hyperlink ref="C6" r:id="rId2" display="两天搭建业务看板及网站Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/CtjuwGhsIiE977kD7TLc4u0KnRe?from=from_copylink"/>
+    <hyperlink ref="C7" r:id="rId3" display="一周搭建文档审核与风控Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/PQ6MwPExLi3v2Vkn3DAckYxGn8b?from=from_copylink"/>
+    <hyperlink ref="C9" r:id="rId4" display="两天半搭建企业级简要演示视频" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/Dkl8wQ6fBiE49Gk4XE2cTRc2nhD?from=from_copylink"/>
+    <hyperlink ref="C11" r:id="rId5" display="一周搭建儿童教育趣味应用Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/Csk3wFuMwiZk00kt8WJco88Wn5g?from=from_copylink"/>
+    <hyperlink ref="C13" r:id="rId6" display="一周搭建长时间序列预测系统Demo（能源领域）" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/G6S3wY1eriHk3UkfCDlc6PEznpd?from=from_copylink"/>
+    <hyperlink ref="C15" r:id="rId7" display="一周搭建智能文档翻译系统Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/QHljw6HhbiceMPkBC49cmvzNnXf?from=from_copylink"/>
+    <hyperlink ref="C17" r:id="rId8" display="一天构建一个多合同交叉校验的智能合同法审系统Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/NfpfwmK16iXEDtkznIscn549nEb?from=from_copylink"/>
+    <hyperlink ref="C19" r:id="rId9" display="一周搭建高精度通用目标检测系统Demo（能源&amp;农林领域）" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/OfMfwwUxMic5Qkkul8GcaA5En4d?from=from_copylink"/>
+    <hyperlink ref="C20" r:id="rId10" display="SQL语言智能生成(NL2SQL)的通用实践" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/GGMKw7bP7iXmNpk88OxcsqCznmg?from=from_copylink"/>
+    <hyperlink ref="C21" r:id="rId11" display="一周搭建对话式功能推荐助手Demo（AI领域）" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/HyCjwOFsoirEEnkJnddcEwo0noh?from=from_copylink"/>
+    <hyperlink ref="C23" r:id="rId12" display="一周构建智能信贷报告生成系统Demo" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/WzlLwUPYFiaUiYkTl4LcIaBCnyf?from=from_copylink"/>
+    <hyperlink ref="C24" r:id="rId13" display="一周构建单条全国产业链图谱" tooltip="https://gvxnc4ekbvn.feishu.cn/wiki/HfZEwCQKAis15tk01CzcjabYnOf?from=from_copylink"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
